--- a/fase_1/Recording List & Schedule Phase 1 FTDS-013.xlsx
+++ b/fase_1/Recording List & Schedule Phase 1 FTDS-013.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="148">
   <si>
     <t>Full Time Data Science Schedule - Phase 1 // Batch 13</t>
   </si>
@@ -253,7 +253,241 @@
     <t>Machine Learning Problem Framing</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1VeRSAG16e7qtSorVozwKUlTSB_HhHF20/view?usp=sharing</t>
+  </si>
+  <si>
     <t>https://colab.research.google.com/drive/1kL1iNXvVftWrTg9VPGJDulA5mLhWrU3h?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D2AM</t>
+  </si>
+  <si>
+    <t>Feature Engineering AM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WuqxC8a-WQdMeMhGZgOFbYk1gBxObuMV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D2PM</t>
+  </si>
+  <si>
+    <t>Feature Engineering PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1coZ6GB16q5_TzwsfzK8VzenzhbJ0EyHo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D3AM</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TOV1wJ88t2L9PtkKEGUS_AmMO8JxRnvg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D3PM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15k_4TmMgGPadDbwbedcNN-1CRTe2hqo7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1OfNaiaLdshAGUqnCfkaJy2o66ntudVc4?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D4AM</t>
+  </si>
+  <si>
+    <t>W1D4PM</t>
+  </si>
+  <si>
+    <t>KNN &amp; Naive Bayes</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iQm_ab5jt3zB-RPR0XAVAYY7qogO8gON/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1X9A5dcOhVz01Y_60utwFKOcKgEACfKbT?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XQMUcP2HRw4RA_1o8jbYV0Kv8CPo_mWB/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W1D5AM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PFHdF7x1KTB4CVXuJBgm05UhX21p4h0b/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D1PM</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uABAV0kyODYeExFFT_ZqCzmwWggu351a/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1ommACzYqfuIe2iWiG_ww3CJYMVcYvbVv?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D2AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kxSGNeGWhexLgYc9iKEuEGNrXjGo_DLx/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1kJdgRYl-meBAbqpgnJcQBcjAQ_g1zD0j?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D2PM</t>
+  </si>
+  <si>
+    <t>Ensamble learning</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yreY_fQKFomfwGOn3re5KboLJzTWJjSh/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D3AM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LYhOTsdYgi_7aa0SpTNMentcFrADPHAQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D3PM</t>
+  </si>
+  <si>
+    <t>Algoritma Chain &amp; Pipeline</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/184VwK3ETH6Pn7o67L8Ktn_RxRc1TW4dc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W2D4AM</t>
+  </si>
+  <si>
+    <t>Model Deployment (Save &amp; Load Model, Inference Script)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FQ0OsOqZzKyG3Q-MjzXJs4rMkKaLBJyg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://github.com/afifai/model-deployment-lecture</t>
+  </si>
+  <si>
+    <t>W2D4PM</t>
+  </si>
+  <si>
+    <t>Model Deployment (Backend &amp; Frontend Deployment)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jovnosybiTz3HO7rEa9Syfl4DlR7LB-r/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D1PM</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Mh7Zm7allZQJPS0T2VZGY7Kp6Y65X75h/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1FJdkvXEhcVied6pkKYhuaAAx0Ljd3Df1?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D2AM</t>
+  </si>
+  <si>
+    <t>Clustering Part 1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15aDbNNzmVOoUhgKG-B1M7Q3Ks7BBbagE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D2PM</t>
+  </si>
+  <si>
+    <t>Clustering Part 2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1--xySBwmmnDQiNol94aDEoEpaHOR9_mF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/1-xVcDK-nA8z5LEyuDO14wvtfh3FbNb9x?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D3AM</t>
+  </si>
+  <si>
+    <t>Gaussian Mixture Model</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eHZKYLF04YRn2FVOn44HMnoZNt_OzzZY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://colab.research.google.com/drive/10vw03Y2GFn0Jxo37x9ccCYo1xcerHCbs?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1LBFGmUPpwDJC3gAR5c0T46331XeNG8REqQHG7HVm0G8/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D3PM</t>
+  </si>
+  <si>
+    <t>Anomaly &amp; Novelty Detection</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gLHoB60FsfGCf1pxJUc8dVYOtSO1Gnj2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W3D4PM</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mkIuXtsHYn8jtJgLjW7-ZuYIL8qM0ZHK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W4D1PM</t>
+  </si>
+  <si>
+    <t>Feature Engineering Advanced</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1s_BnB-oq1DIZc9roOilSbBwruXcvkh_G/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W4D2AM</t>
+  </si>
+  <si>
+    <t>Other Algos &amp; Explainability AI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1p5fitAeQ5H88t89aepxH8Wmxm_7Mey-0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W4D3AM</t>
+  </si>
+  <si>
+    <t>Data Wrangling in SQL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aKQF8HvVWAIrfZ89OQVtiYXI6JxkOf7t/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>W4D3PM</t>
+  </si>
+  <si>
+    <t>End-to-end Supervised ML Project</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1swUs0uf-R2RK7Awba-avLNI14mWAOrMd/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -263,7 +497,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd, d mmmm yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -292,11 +526,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-      <name val="Montserrat"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Montserrat"/>
     </font>
     <font>
@@ -393,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -457,9 +686,6 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -472,11 +698,11 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29045,27 +29271,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="B7 B12 B17 B22">
     <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="G Challenge">
@@ -29114,7 +29340,7 @@
     <col customWidth="1" min="1" max="1" width="6.0"/>
     <col customWidth="1" min="2" max="2" width="8.5"/>
     <col customWidth="1" min="3" max="3" width="9.13"/>
-    <col customWidth="1" min="4" max="4" width="39.63"/>
+    <col customWidth="1" min="4" max="4" width="48.25"/>
     <col customWidth="1" min="5" max="5" width="76.75"/>
     <col customWidth="1" min="6" max="6" width="78.63"/>
     <col customWidth="1" min="7" max="7" width="85.0"/>
@@ -29292,9 +29518,11 @@
       <c r="D6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>19</v>
@@ -29322,10 +29550,18 @@
       <c r="A7" s="16">
         <v>3.0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="14"/>
       <c r="H7" s="12"/>
@@ -29351,10 +29587,18 @@
       <c r="A8" s="16">
         <v>4.0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -29380,10 +29624,18 @@
       <c r="A9" s="16">
         <v>5.0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="14"/>
       <c r="H9" s="12"/>
@@ -29409,11 +29661,21 @@
       <c r="A10" s="16">
         <v>6.0</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -29438,10 +29700,18 @@
       <c r="A11" s="16">
         <v>7.0</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="12"/>
@@ -29464,7 +29734,27 @@
       <c r="Y11" s="12"/>
     </row>
     <row r="12">
-      <c r="G12" s="14"/>
+      <c r="A12" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -29486,12 +29776,20 @@
     </row>
     <row r="13">
       <c r="A13" s="16">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>90</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -29515,13 +29813,23 @@
     </row>
     <row r="14">
       <c r="A14" s="16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -29544,13 +29852,23 @@
     </row>
     <row r="15">
       <c r="A15" s="16">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
+      <c r="B15" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="20"/>
@@ -29573,12 +29891,20 @@
     </row>
     <row r="16">
       <c r="A16" s="16">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="20"/>
+      <c r="B16" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="20"/>
@@ -29601,12 +29927,20 @@
     </row>
     <row r="17">
       <c r="A17" s="16">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -29630,12 +29964,20 @@
     </row>
     <row r="18">
       <c r="A18" s="16">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
@@ -29659,14 +30001,24 @@
     </row>
     <row r="19">
       <c r="A19" s="16">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -29688,12 +30040,21 @@
     </row>
     <row r="20">
       <c r="A20" s="16">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="21"/>
+      <c r="B20" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -29715,13 +30076,23 @@
     </row>
     <row r="21">
       <c r="A21" s="16">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -29744,12 +30115,20 @@
     </row>
     <row r="22">
       <c r="A22" s="16">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
@@ -29773,14 +30152,24 @@
     </row>
     <row r="23">
       <c r="A23" s="16">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="21"/>
+      <c r="B23" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="25"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -29802,14 +30191,26 @@
     </row>
     <row r="24">
       <c r="A24" s="16">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -29831,12 +30232,20 @@
     </row>
     <row r="25">
       <c r="A25" s="16">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -29860,12 +30269,20 @@
     </row>
     <row r="26">
       <c r="A26" s="16">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>135</v>
+      </c>
       <c r="F26" s="14"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -29889,12 +30306,20 @@
     </row>
     <row r="27">
       <c r="A27" s="16">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="F27" s="14"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -29918,12 +30343,20 @@
     </row>
     <row r="28">
       <c r="A28" s="16">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="27"/>
+      <c r="B28" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -29947,12 +30380,20 @@
     </row>
     <row r="29">
       <c r="A29" s="16">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>144</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -29976,13 +30417,21 @@
     </row>
     <row r="30">
       <c r="A30" s="16">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="21"/>
+      <c r="B30" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
@@ -30004,13 +30453,11 @@
       <c r="Y30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="16">
-        <v>26.0</v>
-      </c>
+      <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -30033,11 +30480,8 @@
       <c r="Y31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="16">
-        <v>27.0</v>
-      </c>
       <c r="B32" s="16"/>
-      <c r="C32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="12"/>
@@ -30064,7 +30508,7 @@
     <row r="33">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="14"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -56252,23 +56696,50 @@
       <c r="Y1002" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E5"/>
     <hyperlink r:id="rId2" ref="G5"/>
-    <hyperlink r:id="rId3" ref="F6"/>
+    <hyperlink r:id="rId3" ref="E6"/>
+    <hyperlink r:id="rId4" ref="F6"/>
+    <hyperlink r:id="rId5" ref="E7"/>
+    <hyperlink r:id="rId6" ref="E8"/>
+    <hyperlink r:id="rId7" ref="E9"/>
+    <hyperlink r:id="rId8" ref="E10"/>
+    <hyperlink r:id="rId9" ref="F10"/>
+    <hyperlink r:id="rId10" ref="E12"/>
+    <hyperlink r:id="rId11" ref="F12"/>
+    <hyperlink r:id="rId12" ref="G12"/>
+    <hyperlink r:id="rId13" ref="E13"/>
+    <hyperlink r:id="rId14" ref="E14"/>
+    <hyperlink r:id="rId15" ref="F14"/>
+    <hyperlink r:id="rId16" ref="E15"/>
+    <hyperlink r:id="rId17" ref="F15"/>
+    <hyperlink r:id="rId18" ref="E16"/>
+    <hyperlink r:id="rId19" ref="E17"/>
+    <hyperlink r:id="rId20" ref="E18"/>
+    <hyperlink r:id="rId21" ref="E19"/>
+    <hyperlink r:id="rId22" ref="G19"/>
+    <hyperlink r:id="rId23" ref="E20"/>
+    <hyperlink r:id="rId24" ref="E21"/>
+    <hyperlink r:id="rId25" ref="F21"/>
+    <hyperlink r:id="rId26" ref="E22"/>
+    <hyperlink r:id="rId27" ref="E23"/>
+    <hyperlink r:id="rId28" ref="F23"/>
+    <hyperlink r:id="rId29" ref="E24"/>
+    <hyperlink r:id="rId30" ref="F24"/>
+    <hyperlink r:id="rId31" ref="G24"/>
+    <hyperlink r:id="rId32" ref="E25"/>
+    <hyperlink r:id="rId33" ref="E26"/>
+    <hyperlink r:id="rId34" ref="E27"/>
+    <hyperlink r:id="rId35" ref="E28"/>
+    <hyperlink r:id="rId36" ref="E29"/>
+    <hyperlink r:id="rId37" ref="E30"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>